--- a/example/cc_reports_UKP_21.05.2018-3.8.18.985/summary.xlsx
+++ b/example/cc_reports_UKP_21.05.2018-3.8.18.985/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">DantzigAlgorithm_x000D_
 UniformCrossover_x000D_
@@ -105,6 +105,30 @@
 Inversion_x000D_
 LinearRankSelection_x000D_
 </t>
+  </si>
+  <si>
+    <t>*SinglePointCrossover*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*TwoPointCrossover*</t>
+  </si>
+  <si>
+    <t>*UniformCrossover*</t>
+  </si>
+  <si>
+    <t>*PointMutation*</t>
+  </si>
+  <si>
+    <t>*Saltation*</t>
+  </si>
+  <si>
+    <t>*Translocation*</t>
+  </si>
+  <si>
+    <t>*Inversion*</t>
   </si>
 </sst>
 </file>
@@ -126,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +181,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +528,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +576,33 @@
         <f>COUNTIF($A$1:$E$4,E1)</f>
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COUNTIF(A1:E9,"*LinearRankSelection*")</f>
+        <v>17</v>
+      </c>
+      <c r="M1">
+        <f>COUNTIF(A1:E9,"*BettaTournament*")</f>
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <f>COUNTIF($A$1:$E$9,P1)</f>
+        <v>6</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <f>COUNTIF($A$1:$E$9,R1)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,8 +638,26 @@
         <f t="shared" ref="J2:J4" si="4">COUNTIF($A$1:$E$4,E2)</f>
         <v>3</v>
       </c>
+      <c r="L2" s="2">
+        <f>COUNTIF(A1:E9,"*DantzigAlgorithm*")</f>
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q3" si="5">COUNTIF($A$1:$E$9,P2)</f>
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S3" si="6">COUNTIF($A$1:$E$9,R2)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +693,22 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="P3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -651,6 +743,13 @@
       <c r="J4" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S2:S4" si="7">COUNTIF($A$1:$E$9,P4)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
